--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="936" yWindow="624" windowWidth="23436" windowHeight="17376" tabRatio="500"/>
@@ -10,22 +10,12 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgajbA1sRpj4h647px0Becg4xhqcQ=="/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>Catégorie</t>
   </si>
@@ -46,13 +36,178 @@
   </si>
   <si>
     <t>(SEO ou accessiblité ?)</t>
+  </si>
+  <si>
+    <t>Taille police text centre white</t>
+  </si>
+  <si>
+    <t>SEO</t>
+  </si>
+  <si>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>Contraste avec hover</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Contraste assez important notamment pour les malvoyants on ne voit pas assez le changement de contraste et donc la possibilité d'interaction</t>
+  </si>
+  <si>
+    <t>La taille de police est petite c'est une difficulté pour les malvoyants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Côté local de l'agence Lyon </t>
+  </si>
+  <si>
+    <t>Le côté local revient dans le texte, mais on ne le retrouve pas au niveau des mots-clés on retrouve Paris, mais pas Lyon</t>
+  </si>
+  <si>
+    <t>quel est le problème ?</t>
+  </si>
+  <si>
+    <t>En quoi c'est un pb ?</t>
+  </si>
+  <si>
+    <t>Comment résoudre le pb ?</t>
+  </si>
+  <si>
+    <t>source d'information</t>
+  </si>
+  <si>
+    <t>hvk</t>
+  </si>
+  <si>
+    <t>pas d'utilisation de balise canonique</t>
+  </si>
+  <si>
+    <t>Pas de définition de la langue</t>
+  </si>
+  <si>
+    <t>Viewport fit cover?</t>
+  </si>
+  <si>
+    <t>dans les div bg white te dark, les class sont trop longues</t>
+  </si>
+  <si>
+    <t>Balise meta pas de titre pour les pages 1 et 2</t>
+  </si>
+  <si>
+    <t>Lien contact pas d'explication de la signification du lien</t>
+  </si>
+  <si>
+    <t>Bloc tc -white du mal à distinguer le texte duu fond…</t>
+  </si>
+  <si>
+    <t>Icones n'ont pas de aria label</t>
+  </si>
+  <si>
+    <t>Pas de description des icones</t>
+  </si>
+  <si>
+    <t>role = "img" aria-label="crayon" à rajouter dans la span illustration crayon par exemple</t>
+  </si>
+  <si>
+    <t>Absence de balise structurante</t>
+  </si>
+  <si>
+    <t>Les balises structurantes aident les robots à comprendre l'organisation du contenu et de ce fait améliorent le SEO</t>
+  </si>
+  <si>
+    <t>Il est préférable de définir une langue pour les robots de google</t>
+  </si>
+  <si>
+    <t>&lt;html lang="fr"&gt;</t>
+  </si>
+  <si>
+    <t>Titre de page non définis</t>
+  </si>
+  <si>
+    <t>Pas d'indexation des moteurs de recherche</t>
+  </si>
+  <si>
+    <t>Il faut indiquer via les balises meta name robots qu'on autorise indexation par les moteurs de recherche, sinon il peut y avaoir blocage au niveau des moteurs de recherche</t>
+  </si>
+  <si>
+    <t>Pas de balise canonique</t>
+  </si>
+  <si>
+    <t>Image pas décrite</t>
+  </si>
+  <si>
+    <t>Afin que les malvoyants ou non voyants aient accès à l'image, il faudrait rajouter une description des images</t>
+  </si>
+  <si>
+    <t>dans balise img mettre alt suivi de description de l'image"</t>
+  </si>
+  <si>
+    <t>Dans le html incorporer des balises structurantes de type header nav etc</t>
+  </si>
+  <si>
+    <t>wcag</t>
+  </si>
+  <si>
+    <t>Contraste des couleurs du bouton entre 1er et arrière plan insuffisant : 2,2:1 selon abalyseur de contraste des couleurs</t>
+  </si>
+  <si>
+    <t>Avoir un contraste de minimum 3:1 --&gt; choisir des couleurs présentant cette différences de contraste</t>
+  </si>
+  <si>
+    <t>Le site n'est pas responsive</t>
+  </si>
+  <si>
+    <t>Le site n'est pas mobile first, ce qui peut poser un problème pour son SEO, en effet, depuis 2015, google favorise les sites qui sont mobile-first au niveau SEO</t>
+  </si>
+  <si>
+    <t>Absence d'indication de structuration niveau accessibilité c'est-à-dire de balise aria de rôle pour ces éléments de structure</t>
+  </si>
+  <si>
+    <t>Il faut adapter le site en responsive</t>
+  </si>
+  <si>
+    <t>Bouton ne possède pas d'éléments d'accessibilité</t>
+  </si>
+  <si>
+    <t>Quelqu'un qui est malvoyant et utilise une liseuse ne saura en cliquant sur co</t>
+  </si>
+  <si>
+    <t>Quelqu'un qui utilise la tabulation pour avancer dans le site, ne pourra pas percevoir la logique du site et sera un peu déboussoler par l'ordre des éléments qui ne correspond pas au visuel</t>
+  </si>
+  <si>
+    <t>L'ordre du focus ne correspond pas au visuel</t>
+  </si>
+  <si>
+    <t>Il n'y a pas de texte explicatif sur la destination des liens</t>
+  </si>
+  <si>
+    <t>Les gens utilisant par exemple un outil automatiqé de lecture, ne sorront pas le type de lien dont il s'agit</t>
+  </si>
+  <si>
+    <t>Rajouter description du lien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texte écriture avec </t>
+  </si>
+  <si>
+    <t>interlettre (espace entre 2 lettres) pas bon lisibilité (facilité à lire des blocs de texte) pas bonne et longueur de ligne supérieur à 75 caractères</t>
+  </si>
+  <si>
+    <t>citation pas d'utilisation non identifiée structurellement</t>
+  </si>
+  <si>
+    <t>la citation doit maintenant être identifier au niveau duu html</t>
+  </si>
+  <si>
+    <t>A la conception, faire tableau avec ordre de focus et ordre de lecture des éléments</t>
+  </si>
+  <si>
+    <t>identifier la citation à l'aide de la balise &lt;q&gt;  et même blockquote vu la longueur de la citation pas spécialeme,nt besoin d'utiliser un un rôle ARIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -82,9 +237,16 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,6 +257,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -117,25 +285,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -337,17 +514,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="21.26953125" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
+    <col min="2" max="2" width="30.36328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="31.26953125" customWidth="1"/>
+    <col min="4" max="4" width="29.453125" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.26953125" customWidth="1"/>
     <col min="7" max="26" width="10.54296875" customWidth="1"/>
@@ -357,7 +536,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -393,164 +572,973 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" ht="21" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1">
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1">
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1">
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="E12" s="4"/>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="31.2">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:26" ht="62.4">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:26" ht="62.4">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="78">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="7">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:26" ht="62.4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:26" ht="62.4">
+      <c r="A8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:26" ht="31.2">
+      <c r="B9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:26" ht="46.8">
+      <c r="B10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:26" ht="62.4">
+      <c r="B11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:26" ht="62.4">
+      <c r="B12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="E13" s="4"/>
+      <c r="B13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
+      <c r="B14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.6">
+      <c r="B15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:26" ht="17.399999999999999" customHeight="1">
+      <c r="B16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="31.2">
+      <c r="B17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" ht="31.2">
+      <c r="B18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" ht="78">
+      <c r="B21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="31.2">
+      <c r="B23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" ht="93.6">
+      <c r="A24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="46.8">
+      <c r="A25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" ht="62.4">
+      <c r="B26" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" ht="78">
+      <c r="A27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B52" s="7"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B53" s="7"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B54" s="7"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B55" s="7"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B56" s="7"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B57" s="7"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+    </row>
+    <row r="58" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B58" s="7"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B59" s="7"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B60" s="7"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B61" s="7"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B62" s="7"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B63" s="7"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+    </row>
+    <row r="64" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B64" s="7"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+    </row>
+    <row r="65" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B65" s="7"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+    </row>
+    <row r="66" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B66" s="7"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+    </row>
+    <row r="67" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B67" s="7"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+    </row>
+    <row r="68" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B68" s="7"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+    </row>
+    <row r="69" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B69" s="7"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B70" s="7"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+    </row>
+    <row r="71" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B71" s="7"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+    </row>
+    <row r="72" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B72" s="7"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+    </row>
+    <row r="73" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B73" s="7"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+    </row>
+    <row r="74" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B74" s="7"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+    </row>
+    <row r="75" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B75" s="7"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+    </row>
+    <row r="76" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B76" s="7"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+    </row>
+    <row r="77" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B77" s="7"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+    </row>
+    <row r="78" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B78" s="7"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+    </row>
+    <row r="79" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B79" s="7"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+    </row>
+    <row r="80" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B80" s="7"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+    </row>
+    <row r="81" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B81" s="7"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+    </row>
+    <row r="82" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B82" s="7"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+    </row>
+    <row r="83" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B83" s="7"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+    </row>
+    <row r="84" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B84" s="7"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+    </row>
+    <row r="85" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B85" s="7"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+    </row>
+    <row r="86" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B86" s="7"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+    </row>
+    <row r="87" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B87" s="7"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+    </row>
+    <row r="88" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B88" s="7"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+    </row>
+    <row r="89" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B89" s="7"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+    </row>
+    <row r="90" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B90" s="7"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+    </row>
+    <row r="91" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B91" s="7"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+    </row>
+    <row r="92" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B92" s="7"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+    </row>
+    <row r="93" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B93" s="7"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+    </row>
+    <row r="94" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B94" s="7"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+    </row>
+    <row r="95" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B95" s="7"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+    </row>
+    <row r="96" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B96" s="7"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+    </row>
+    <row r="97" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B97" s="7"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+    </row>
+    <row r="98" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B98" s="7"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+    </row>
+    <row r="99" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B99" s="7"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+    </row>
+    <row r="100" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B100" s="7"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+    </row>
+    <row r="101" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B101" s="7"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+    </row>
+    <row r="102" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B102" s="7"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+    </row>
+    <row r="103" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B103" s="7"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+    </row>
+    <row r="104" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B104" s="7"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+    </row>
+    <row r="105" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B105" s="7"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+    </row>
+    <row r="106" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B106" s="7"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+    </row>
+    <row r="107" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B107" s="7"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+    </row>
+    <row r="108" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B108" s="7"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+    </row>
+    <row r="109" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B109" s="7"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+    </row>
+    <row r="110" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B110" s="7"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+    </row>
+    <row r="111" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B111" s="7"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+    </row>
+    <row r="112" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B112" s="7"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+    </row>
+    <row r="113" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B113" s="7"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+    </row>
+    <row r="114" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B114" s="7"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+    </row>
+    <row r="115" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B115" s="7"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+    </row>
+    <row r="116" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B116" s="7"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+    </row>
+    <row r="117" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B117" s="7"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+    </row>
+    <row r="118" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="119" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="120" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="121" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="122" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="123" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="124" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="125" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="126" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="127" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="128" spans="2:6" ht="15.75" customHeight="1"/>
     <row r="129" ht="15.75" customHeight="1"/>
     <row r="130" ht="15.75" customHeight="1"/>
     <row r="131" ht="15.75" customHeight="1"/>
@@ -1423,8 +2411,9 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
   <si>
     <t>Catégorie</t>
   </si>
@@ -38,9 +38,6 @@
     <t>(SEO ou accessiblité ?)</t>
   </si>
   <si>
-    <t>Taille police text centre white</t>
-  </si>
-  <si>
     <t>SEO</t>
   </si>
   <si>
@@ -53,9 +50,6 @@
     <t xml:space="preserve"> Contraste assez important notamment pour les malvoyants on ne voit pas assez le changement de contraste et donc la possibilité d'interaction</t>
   </si>
   <si>
-    <t>La taille de police est petite c'est une difficulté pour les malvoyants</t>
-  </si>
-  <si>
     <t xml:space="preserve">Côté local de l'agence Lyon </t>
   </si>
   <si>
@@ -83,9 +77,6 @@
     <t>Pas de définition de la langue</t>
   </si>
   <si>
-    <t>Viewport fit cover?</t>
-  </si>
-  <si>
     <t>dans les div bg white te dark, les class sont trop longues</t>
   </si>
   <si>
@@ -125,9 +116,6 @@
     <t>Pas d'indexation des moteurs de recherche</t>
   </si>
   <si>
-    <t>Il faut indiquer via les balises meta name robots qu'on autorise indexation par les moteurs de recherche, sinon il peut y avaoir blocage au niveau des moteurs de recherche</t>
-  </si>
-  <si>
     <t>Pas de balise canonique</t>
   </si>
   <si>
@@ -201,6 +189,87 @@
   </si>
   <si>
     <t>identifier la citation à l'aide de la balise &lt;q&gt;  et même blockquote vu la longueur de la citation pas spécialeme,nt besoin d'utiliser un un rôle ARIA</t>
+  </si>
+  <si>
+    <t>Les liens ne sont pas de qualité</t>
+  </si>
+  <si>
+    <t>ils sont dans le footer, ils ne sont pas de qualité, il n'apportent pas de plus value</t>
+  </si>
+  <si>
+    <t>Faire des liens avec de vrai partenaires qui ne sont pas des concurrents on pourrait mettre un partenaire avec qui on a déjà travaillé et qui a une certaine notoriété</t>
+  </si>
+  <si>
+    <t>Structure/Plan de navigation pas claire</t>
+  </si>
+  <si>
+    <t>Le menu de navigation ne décrit clairement le site ni ce qui se trouve en page 2</t>
+  </si>
+  <si>
+    <t>Phras ed'accroche titre 1 pas assezv catchy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le titre 1 ne donne pas d'information sur </t>
+  </si>
+  <si>
+    <t>Taille pde polic inappropriée</t>
+  </si>
+  <si>
+    <t>Augmenter les tailles de police du texte de base</t>
+  </si>
+  <si>
+    <t>Texte h2 pas distingable de l'image de background</t>
+  </si>
+  <si>
+    <t>Faire partie nos réalisations, Faire partie contact, partie notre vision, faire à propos ou présentation, faire partie activités, champ d'activité, champ d'intervention choisi champs d'activité, notre vision, nos réalisations…</t>
+  </si>
+  <si>
+    <t>Balise meta description non complétée</t>
+  </si>
+  <si>
+    <t>renseigner les champs des formulaires avec des indications en exemple</t>
+  </si>
+  <si>
+    <t>Absence de titre page 2 également</t>
+  </si>
+  <si>
+    <t>fournira à google le petit résumé qu'il affiche quand la requête est trouvée</t>
+  </si>
+  <si>
+    <t>accessibilité indications sur le remplissage du formulaire</t>
+  </si>
+  <si>
+    <t>Elle n'est plus lu par google et vient contrarier le principe DRY</t>
+  </si>
+  <si>
+    <t>Présence de balise meta keywords</t>
+  </si>
+  <si>
+    <t>Supprimer la balise</t>
+  </si>
+  <si>
+    <t>Images trop lourdes et trop grandes</t>
+  </si>
+  <si>
+    <t>texte de page non compressé</t>
+  </si>
+  <si>
+    <t>contenu non compressé entraine augmentation du délai de chargement de la page</t>
+  </si>
+  <si>
+    <t>compresser le contenu de la page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contenu lourd entraine augmentation du délai de chargement </t>
+  </si>
+  <si>
+    <t>rogner les imgaes pur quelles soient de la taille de leur contenair peu ou prou et compresser les images</t>
+  </si>
+  <si>
+    <t>Il faut indiquer via les balises meta name robots qu'on autorise indexation par les moteurs de recherche, sinon il peut y avoir blocage au niveau des moteurs de recherche</t>
+  </si>
+  <si>
+    <t>&lt;meta name ="robots" content ="index, follow"&gt;</t>
   </si>
 </sst>
 </file>
@@ -246,7 +315,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,6 +331,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -305,6 +380,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -517,8 +595,8 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1"/>
@@ -577,28 +655,28 @@
         <v>6</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="31.2">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -606,13 +684,13 @@
     </row>
     <row r="4" spans="1:26" ht="62.4">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7">
@@ -622,34 +700,34 @@
     </row>
     <row r="5" spans="1:26" ht="62.4">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7">
         <v>2</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="78">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E6" s="7">
         <v>3</v>
@@ -658,39 +736,39 @@
     </row>
     <row r="7" spans="1:26" ht="62.4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:26" ht="62.4">
       <c r="A8" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:26" ht="31.2">
       <c r="B9" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -699,20 +777,20 @@
     </row>
     <row r="10" spans="1:26" ht="46.8">
       <c r="B10" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:26" ht="62.4">
       <c r="B11" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -721,30 +799,28 @@
     </row>
     <row r="12" spans="1:26" ht="62.4">
       <c r="B12" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
-        <v>44</v>
+      <c r="D12" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="B13" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B14" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -752,7 +828,7 @@
     </row>
     <row r="15" spans="1:26" ht="15.6">
       <c r="B15" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -761,20 +837,20 @@
     </row>
     <row r="16" spans="1:26" ht="17.399999999999999" customHeight="1">
       <c r="B16" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" ht="31.2">
       <c r="B17" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -783,7 +859,7 @@
     </row>
     <row r="18" spans="1:6" ht="31.2">
       <c r="B18" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -792,7 +868,7 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="B19" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -801,7 +877,7 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="B20" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -810,18 +886,20 @@
     </row>
     <row r="21" spans="1:6" ht="78">
       <c r="B21" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>84</v>
+      </c>
       <c r="E21" s="7"/>
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="B22" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -830,10 +908,10 @@
     </row>
     <row r="23" spans="1:6" ht="31.2">
       <c r="B23" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -841,42 +919,42 @@
     </row>
     <row r="24" spans="1:6" ht="93.6">
       <c r="A24" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="46.8">
       <c r="A25" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" ht="62.4">
       <c r="B26" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -884,51 +962,76 @@
     </row>
     <row r="27" spans="1:6" ht="78">
       <c r="A27" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+    <row r="28" spans="1:6" ht="93.6">
+      <c r="A28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="E28" s="7"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+    <row r="29" spans="1:6" ht="109.2">
+      <c r="B29" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="E29" s="7"/>
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
+      <c r="B30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B31" s="7"/>
+    <row r="31" spans="1:6" ht="31.2">
+      <c r="B31" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+    <row r="32" spans="1:6" ht="31.2">
+      <c r="B32" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="8"/>
@@ -940,38 +1043,62 @@
       <c r="E33" s="7"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+    <row r="34" spans="2:6" ht="31.2">
+      <c r="B34" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B35" s="7"/>
+      <c r="B35" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+    <row r="36" spans="2:6" ht="31.2">
+      <c r="B36" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="E36" s="7"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+    <row r="37" spans="2:6" ht="46.8">
+      <c r="B37" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="E37" s="7"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+    <row r="38" spans="2:6" ht="46.8">
+      <c r="B38" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="E38" s="7"/>
       <c r="F38" s="8"/>
     </row>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="624" windowWidth="23436" windowHeight="17376" tabRatio="500"/>
+    <workbookView xWindow="936" yWindow="624" windowWidth="22128" windowHeight="8436" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="ELEMENTS RETENUS CRITERES" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$2:$F$35</definedName>
+  </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="160">
   <si>
     <t>Catégorie</t>
   </si>
@@ -44,18 +47,6 @@
     <t>Access</t>
   </si>
   <si>
-    <t>Contraste avec hover</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Contraste assez important notamment pour les malvoyants on ne voit pas assez le changement de contraste et donc la possibilité d'interaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Côté local de l'agence Lyon </t>
-  </si>
-  <si>
-    <t>Le côté local revient dans le texte, mais on ne le retrouve pas au niveau des mots-clés on retrouve Paris, mais pas Lyon</t>
-  </si>
-  <si>
     <t>quel est le problème ?</t>
   </si>
   <si>
@@ -68,215 +59,493 @@
     <t>source d'information</t>
   </si>
   <si>
-    <t>hvk</t>
-  </si>
-  <si>
-    <t>pas d'utilisation de balise canonique</t>
-  </si>
-  <si>
     <t>Pas de définition de la langue</t>
   </si>
   <si>
-    <t>dans les div bg white te dark, les class sont trop longues</t>
-  </si>
-  <si>
-    <t>Balise meta pas de titre pour les pages 1 et 2</t>
-  </si>
-  <si>
-    <t>Lien contact pas d'explication de la signification du lien</t>
-  </si>
-  <si>
-    <t>Bloc tc -white du mal à distinguer le texte duu fond…</t>
-  </si>
-  <si>
-    <t>Icones n'ont pas de aria label</t>
-  </si>
-  <si>
-    <t>Pas de description des icones</t>
-  </si>
-  <si>
-    <t>role = "img" aria-label="crayon" à rajouter dans la span illustration crayon par exemple</t>
-  </si>
-  <si>
-    <t>Absence de balise structurante</t>
-  </si>
-  <si>
-    <t>Les balises structurantes aident les robots à comprendre l'organisation du contenu et de ce fait améliorent le SEO</t>
-  </si>
-  <si>
-    <t>Il est préférable de définir une langue pour les robots de google</t>
-  </si>
-  <si>
-    <t>&lt;html lang="fr"&gt;</t>
-  </si>
-  <si>
-    <t>Titre de page non définis</t>
-  </si>
-  <si>
-    <t>Pas d'indexation des moteurs de recherche</t>
-  </si>
-  <si>
-    <t>Pas de balise canonique</t>
-  </si>
-  <si>
-    <t>Image pas décrite</t>
-  </si>
-  <si>
-    <t>Afin que les malvoyants ou non voyants aient accès à l'image, il faudrait rajouter une description des images</t>
-  </si>
-  <si>
-    <t>dans balise img mettre alt suivi de description de l'image"</t>
-  </si>
-  <si>
-    <t>Dans le html incorporer des balises structurantes de type header nav etc</t>
-  </si>
-  <si>
-    <t>wcag</t>
-  </si>
-  <si>
-    <t>Contraste des couleurs du bouton entre 1er et arrière plan insuffisant : 2,2:1 selon abalyseur de contraste des couleurs</t>
-  </si>
-  <si>
-    <t>Avoir un contraste de minimum 3:1 --&gt; choisir des couleurs présentant cette différences de contraste</t>
-  </si>
-  <si>
-    <t>Le site n'est pas responsive</t>
-  </si>
-  <si>
-    <t>Le site n'est pas mobile first, ce qui peut poser un problème pour son SEO, en effet, depuis 2015, google favorise les sites qui sont mobile-first au niveau SEO</t>
-  </si>
-  <si>
-    <t>Absence d'indication de structuration niveau accessibilité c'est-à-dire de balise aria de rôle pour ces éléments de structure</t>
-  </si>
-  <si>
-    <t>Il faut adapter le site en responsive</t>
-  </si>
-  <si>
-    <t>Bouton ne possède pas d'éléments d'accessibilité</t>
-  </si>
-  <si>
-    <t>Quelqu'un qui est malvoyant et utilise une liseuse ne saura en cliquant sur co</t>
-  </si>
-  <si>
-    <t>Quelqu'un qui utilise la tabulation pour avancer dans le site, ne pourra pas percevoir la logique du site et sera un peu déboussoler par l'ordre des éléments qui ne correspond pas au visuel</t>
-  </si>
-  <si>
-    <t>L'ordre du focus ne correspond pas au visuel</t>
-  </si>
-  <si>
-    <t>Il n'y a pas de texte explicatif sur la destination des liens</t>
-  </si>
-  <si>
-    <t>Les gens utilisant par exemple un outil automatiqé de lecture, ne sorront pas le type de lien dont il s'agit</t>
-  </si>
-  <si>
-    <t>Rajouter description du lien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texte écriture avec </t>
-  </si>
-  <si>
-    <t>interlettre (espace entre 2 lettres) pas bon lisibilité (facilité à lire des blocs de texte) pas bonne et longueur de ligne supérieur à 75 caractères</t>
-  </si>
-  <si>
-    <t>citation pas d'utilisation non identifiée structurellement</t>
-  </si>
-  <si>
-    <t>la citation doit maintenant être identifier au niveau duu html</t>
-  </si>
-  <si>
-    <t>A la conception, faire tableau avec ordre de focus et ordre de lecture des éléments</t>
-  </si>
-  <si>
-    <t>identifier la citation à l'aide de la balise &lt;q&gt;  et même blockquote vu la longueur de la citation pas spécialeme,nt besoin d'utiliser un un rôle ARIA</t>
-  </si>
-  <si>
-    <t>Les liens ne sont pas de qualité</t>
-  </si>
-  <si>
-    <t>ils sont dans le footer, ils ne sont pas de qualité, il n'apportent pas de plus value</t>
-  </si>
-  <si>
-    <t>Faire des liens avec de vrai partenaires qui ne sont pas des concurrents on pourrait mettre un partenaire avec qui on a déjà travaillé et qui a une certaine notoriété</t>
-  </si>
-  <si>
-    <t>Structure/Plan de navigation pas claire</t>
-  </si>
-  <si>
-    <t>Le menu de navigation ne décrit clairement le site ni ce qui se trouve en page 2</t>
-  </si>
-  <si>
-    <t>Phras ed'accroche titre 1 pas assezv catchy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le titre 1 ne donne pas d'information sur </t>
-  </si>
-  <si>
-    <t>Taille pde polic inappropriée</t>
-  </si>
-  <si>
-    <t>Augmenter les tailles de police du texte de base</t>
-  </si>
-  <si>
-    <t>Texte h2 pas distingable de l'image de background</t>
-  </si>
-  <si>
-    <t>Faire partie nos réalisations, Faire partie contact, partie notre vision, faire à propos ou présentation, faire partie activités, champ d'activité, champ d'intervention choisi champs d'activité, notre vision, nos réalisations…</t>
-  </si>
-  <si>
-    <t>Balise meta description non complétée</t>
-  </si>
-  <si>
-    <t>renseigner les champs des formulaires avec des indications en exemple</t>
-  </si>
-  <si>
-    <t>Absence de titre page 2 également</t>
-  </si>
-  <si>
-    <t>fournira à google le petit résumé qu'il affiche quand la requête est trouvée</t>
-  </si>
-  <si>
-    <t>accessibilité indications sur le remplissage du formulaire</t>
-  </si>
-  <si>
-    <t>Elle n'est plus lu par google et vient contrarier le principe DRY</t>
-  </si>
-  <si>
     <t>Présence de balise meta keywords</t>
   </si>
   <si>
-    <t>Supprimer la balise</t>
-  </si>
-  <si>
-    <t>Images trop lourdes et trop grandes</t>
-  </si>
-  <si>
-    <t>texte de page non compressé</t>
-  </si>
-  <si>
-    <t>contenu non compressé entraine augmentation du délai de chargement de la page</t>
-  </si>
-  <si>
-    <t>compresser le contenu de la page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contenu lourd entraine augmentation du délai de chargement </t>
-  </si>
-  <si>
-    <t>rogner les imgaes pur quelles soient de la taille de leur contenair peu ou prou et compresser les images</t>
-  </si>
-  <si>
-    <t>Il faut indiquer via les balises meta name robots qu'on autorise indexation par les moteurs de recherche, sinon il peut y avoir blocage au niveau des moteurs de recherche</t>
-  </si>
-  <si>
-    <t>&lt;meta name ="robots" content ="index, follow"&gt;</t>
+    <t>temps téléchargement P1</t>
+  </si>
+  <si>
+    <t>Temps telechargement P2</t>
+  </si>
+  <si>
+    <t>142 ms</t>
+  </si>
+  <si>
+    <t>424 ms</t>
+  </si>
+  <si>
+    <t>Mise en œuvre importante</t>
+  </si>
+  <si>
+    <t>Mise en œuvre très urgente</t>
+  </si>
+  <si>
+    <t>Mise en œuvre moins urgente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.5 Identify Input purpose </t>
+  </si>
+  <si>
+    <t>Dans les formulaires, indiquer une valeur d'autocompletion (Ex: Nom - Prénom)</t>
+  </si>
+  <si>
+    <t>Chevauchement du texte sur un lien du footer et sur le "menu nav page 2" quand on augmente la taille du texte de 200%.</t>
+  </si>
+  <si>
+    <t>Cela représente un obstacle à l'accessibilité du contenu pour les personnes malvoyantes qui doivent augmenter la taille du texte pour réussir à le lire et qui de ce fait, vont être gênées dans leur lecture.</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6941263-creez-des-designs-visuels-accessibles</t>
+  </si>
+  <si>
+    <t>Taille de police trop petite dans les paragraphes.</t>
+  </si>
+  <si>
+    <t>Cela nuit à la différentiabilité du texte du texte difficulté  et un obstacle à l'accessibilité du contenu textuel.</t>
+  </si>
+  <si>
+    <t>Augmenter la taille de police dans les paragraphes.</t>
+  </si>
+  <si>
+    <t>Longueur de lignes trop importantes au niveau du texte central en blanc.</t>
+  </si>
+  <si>
+    <t>C'est un des facteurs qui nuit à la lisibilité du texte.</t>
+  </si>
+  <si>
+    <t>Avoir des longueurs de lignes comprises entre 40 et 75 caractéres en allant à la ligne plus régulièrement.</t>
+  </si>
+  <si>
+    <t>Espacer suffisament le texte et tester le texte du site avec l'extension "zoom text only" en augmentant la taille du texte jusqu'à 200% afin de voir s'il reste des chevauchements. On peut aussi réorganiser les parties concernées.</t>
+  </si>
+  <si>
+    <t>1.1.1 non-text content guide WCAG</t>
+  </si>
+  <si>
+    <t>Afin que les malvoyants ou non voyants aient accès à l'image, il faut un texte alternatif cohérent et qui décrit l'image présente, or ce n'est pas le cas.</t>
+  </si>
+  <si>
+    <t>Dans balise img mettre alt suivi de la description des images en question.</t>
+  </si>
+  <si>
+    <t>Les icônes n'ont pas de texte alternatif.</t>
+  </si>
+  <si>
+    <t>Les images n'ont pas de texte alternatif approprié.</t>
+  </si>
+  <si>
+    <t>Certaines images sont trop lourdes.</t>
+  </si>
+  <si>
+    <t>Des images non compressées, un contenu lourd, cela entraîne une augmentation du délai de chargement de la page, cela joue sur la crawlabilité, le crawlbudget du site.</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055231-allegez-les-pages-de-votre-site</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Utilisation de Pingdom pour analyser la cinétique de chargement de la page et des images en particulier ainsi que lien vers le cours sur allégez les pages de votre site : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055231-allegez-les-pages-de-votre-site</t>
+    </r>
+  </si>
+  <si>
+    <t>Afin d'enrichir au maximum l'expérience des malvoyants, il faut un texte alternatif qui décrit l'icône présente à l'écran, sans quoi il passera à côté de certains éléments qui  font la cohérence du site.</t>
+  </si>
+  <si>
+    <t>Dans les balises span des icônes correspondantes, il faut rajouter un Role et un ARIA approprié.</t>
+  </si>
+  <si>
+    <t>Définir une langue permet aux lecteurs d'écran de lire le contenu dans la langue appropriée.</t>
+  </si>
+  <si>
+    <t>3.1.1 Language of page WCAG guide</t>
+  </si>
+  <si>
+    <t>Dans la balise html lang, indiquer la langue française</t>
+  </si>
+  <si>
+    <t>Les utilisateurs ayant une vision faible ou des difficultés à distinguer les nuances de couleur auront du mal à lire le texte inscrit sur le bouton.</t>
+  </si>
+  <si>
+    <t>1.4.3 Contrast (Minimum) du guide WCAG</t>
+  </si>
+  <si>
+    <t>D'une manière générale, il est conseillé de compresser les images. On peut utiliser des outils de compression comme imageOptim, PNG gauntlet ou https://compressor.io/</t>
+  </si>
+  <si>
+    <t>1.1.1 non-text content guide wcag et utilisation du Contrast Colour Analyzer pour connaître le degré de contraste entre les 2 couleurs.</t>
+  </si>
+  <si>
+    <t>Il faut trouver une couleur de fond présentant suffisamment de contraste avec la couleur du texte, tout en restant dans la charte graphique de La Chouette Agence. Actuellement ce contraste est à 2,2 : 1 et il devrait être au minimum à 3:1 pour les textes de cette taille.</t>
+  </si>
+  <si>
+    <t>La mise au point du focus n'est pas visible, excepté sur les liens en fin de page 1.</t>
+  </si>
+  <si>
+    <t>Un navigateur utilisant le clavier ne pourra pas se situer et même ne pourra pas naviguer sur le site.</t>
+  </si>
+  <si>
+    <t>Déterminer un style pour les éléments mois en focus (ce style peut être une bordure solide ou en pointillée qui encadre l'élément en focus).</t>
+  </si>
+  <si>
+    <t>2.4.7 Focus visible</t>
+  </si>
+  <si>
+    <r>
+      <t>1.4.4. Resize text image du content guide WCAG et "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>extension chrome zoom text image"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <t>Dans le cas ou les scripts peuvent être exécutés dès qu'ils sont disponibles, mieux vaut privilégier une exécution asynchrone du javascript.</t>
+  </si>
+  <si>
+    <t>L'appel aux fichiers javascript se fait en différé.</t>
+  </si>
+  <si>
+    <t>L'appel au fichier javascript en différé bloque l'affichage de la page, tant que les fichiers javascipt ne sont pas totalement téléchargés. Cela entraine une perte de vitesse au niveau de l'affichage de la page.</t>
+  </si>
+  <si>
+    <t>URL ne contient pas de mot clé</t>
+  </si>
+  <si>
+    <t>Lien vers cours: https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578346-augmentez-lautorite-de-votre-site</t>
+  </si>
+  <si>
+    <t>Les liens situés dans le footer,  n'apportent pas de plus value au niveau du SEO. Ils sont trop nombreux et le robot de google ne tiendra pas compte d'autant de liens, il ne les visitera probablement pas tous.</t>
+  </si>
+  <si>
+    <t>Faire des liens avec de vrais partenaires qui ne sont pas des concurrents on pourrait mettre un partenaire avec qui on a déjà travaillé et qui a une certaine notoriété sur le web.</t>
+  </si>
+  <si>
+    <t>Les liens de partenariat ne sont pas de qualité.</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578342-realisez-un-audit-de-votre-site</t>
+  </si>
+  <si>
+    <t>Elle n'est plus prise en compte par googlebots, elle vient contrarier le principe DRY et de plus elle permettra à nos concurents de trouver facilement nos mots-clés.</t>
+  </si>
+  <si>
+    <t>Supprimer la balise keywords et son contenu.</t>
+  </si>
+  <si>
+    <t>Lien vers Quizz du cours Openclassroom fournissant des explications sur cette balise : https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/exercises/2942</t>
+  </si>
+  <si>
+    <t>Les mots-clés ne sont pas localisés.</t>
+  </si>
+  <si>
+    <t>L'entreprise est implantée à Lyon, avec des locaux ou l'équipe peut être rencontrée. Les gens qui cherchent sont sur le bassin lyonnais, ils vont donc chercher une entreprise implantée en local. De ce fait, en n'indiquant pas l'implantation locale dans nos mots-clés, on perd en référencement naturel.</t>
+  </si>
+  <si>
+    <t>Lien cours Openclassrooms sur la localisation des mots-clés : https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578340-localisez-vos-mots-cles.</t>
+  </si>
+  <si>
+    <t>Le site n'est pas mobile first, ce qui peut poser un problème pour son SEO, en effet, depuis 2015, google favorise les sites qui sont mobile-first au niveau SEO.</t>
+  </si>
+  <si>
+    <t>Renseigner des mots-clés indiquant la localisation quand cela peut servir les intérêts de l'entreprise.</t>
+  </si>
+  <si>
+    <t>Le site nécessite quelques adaptations responsive. Lors des tests avec certains portables, des sections de phrases disparaissent de l'écran.</t>
+  </si>
+  <si>
+    <t>Chapitre "pensez mobile-first" du cours Openclassrooms sur le SEO : https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055226-pensez-mobile-first</t>
+  </si>
+  <si>
+    <t>Cours sur le référencement naturel : https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578343-optimisez-le-contenu-de-vos-pages</t>
+  </si>
+  <si>
+    <t>Il faut réaliser les adaptations nécessaires afin que tous les éléments soient présents à l'écran quand on consulte le site depuis un téléphone portable.</t>
+  </si>
+  <si>
+    <t>Lien vers le cours sur la création d'iun contenu web accessible : https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6941560-annotez-vos-maquettes-a-laide-dinformations-daccessibilite</t>
+  </si>
+  <si>
+    <t>Absence de balise structurante html.</t>
+  </si>
+  <si>
+    <t>Les champs de saisie des formulaires ne sont pas identifiés avec des exemples. Ils n'ont pas d'attribut d'autocomplétion.</t>
+  </si>
+  <si>
+    <t>Ses informations aident les utilisateurs dans le remplissage des formulaires. Sans ces données, on n'aura pas accès aux informationsque l'on recherche.</t>
+  </si>
+  <si>
+    <t>Dans le html incorporer des balises structurantes de type header nav etc ou des balises de repérage aria, ou les deux.</t>
+  </si>
+  <si>
+    <t>Lien sur cours augmenter le trafic : https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578342-realisez-un-audit-de-votre-site</t>
+  </si>
+  <si>
+    <t>Indiquer que le contenu de la balise meta robots est bien index, follow.</t>
+  </si>
+  <si>
+    <t>La balise meta robots ne contient pas les bonnes informations.</t>
+  </si>
+  <si>
+    <t>Il faut indiquer via les balises meta name robots qu'on autorise indexation par les moteurs de recherche, sinon il peut y avoir blocage au niveau des moteurs de recherche et la page peut ne pas être indexée.</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578343-optimisez-le-contenu-de-vos-pages</t>
+  </si>
+  <si>
+    <t>Le fait de passer d'un titre H1 à un titre H2 nuit à la structuration du site, qui est un critère influant sur la qualité du site, son SEO.</t>
+  </si>
+  <si>
+    <t>Le concepteur du site a écrit des mots-clés qui seront visibles par le googlebots, mais pas par les utilisateurs, dans le but d'augmenter son référencement naturel. C'est une pratique condamnée par google et qui peut fortement dégrader le référencement naturel d'une page web.</t>
+  </si>
+  <si>
+    <t>Liens vers cours traitant du sujet : https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5561438-analysez-le-fonctionnement-de-google</t>
+  </si>
+  <si>
+    <t>Contenu mal structuré: on arrive directement à des titres de niveau 3 sans passer par des titres de niveau 2</t>
+  </si>
+  <si>
+    <t>Cela empêche aux Technologies d'assistance de suivre l'ordre logique de la page web.</t>
+  </si>
+  <si>
+    <t>Il faut faire des listes à puce ordonnées en utilisant la balise ol</t>
+  </si>
+  <si>
+    <t>1.3.1 Info and relationships Icon index du guide WCAG</t>
+  </si>
+  <si>
+    <t>Trop de liens mènent à la même destination</t>
+  </si>
+  <si>
+    <t>Cela entraine une navigation et une répétition supplémentaire pour les utilisateurs de claviers et de lecteurs d'écrans, d'autant plus quand la destination du lien n'est pas indiquée.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autant que faire se peut, combiner les liens redondants en un seul lien. </t>
+  </si>
+  <si>
+    <t>2.4.4 Link purpose (in context) du guide WCAG</t>
+  </si>
+  <si>
+    <t>Ces ressources inutiles augmentent la taille du site web, donc ralentissent le googlebot au cours de l'indexation, cela a une incidence sur le SEO.</t>
+  </si>
+  <si>
+    <t>Eliminer les ressources inutiles en minifiant et/ou en compressant; par exemple en utilisant https://minifier.org</t>
+  </si>
+  <si>
+    <t>Lien du cours sur le SEO partie sur l'allègement des sites web : https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055231-allegez-les-pages-de-votre-site</t>
+  </si>
+  <si>
+    <t>Existence de ressources inutiles dans l'encodage, en terme de caractères, d'espace, de sauts de ligne, etc en javascript et/ou en CSS.</t>
+  </si>
+  <si>
+    <t>Titre H2 ne contiennent pas le mot-clé choisi ou un synonyme proche.</t>
+  </si>
+  <si>
+    <t>Titre H1 ne contient pas le mot-clé choisi.</t>
+  </si>
+  <si>
+    <t>Cela ne donne pas à google assez de contexte sur le contenu.</t>
+  </si>
+  <si>
+    <t>Cela ne donne pas à google assez de contexte sur ce qui sera contenu dans cette sous partie, même si c'est dans une moindre que pour le titre H1. Cela entraine qu'il cernera moins le sujet.</t>
+  </si>
+  <si>
+    <t>Placer un mot-clé ou un synonyme dans le titre de niveau 2.</t>
+  </si>
+  <si>
+    <t>Placer le mot clé dans le titre de niveau 1, si possible parmi les premiers caractères.</t>
+  </si>
+  <si>
+    <t>Le site sera d'autant plus difficilement accessible si l'URL du site ne cointient pas le nom de l'agence.</t>
+  </si>
+  <si>
+    <t>URL ne contient pas le nom de le mot-clé de marque.</t>
+  </si>
+  <si>
+    <t>Mettre la Chouette agence dans lescaractères de l'URL.</t>
+  </si>
+  <si>
+    <t>Mettre le mot-clé dans l'URL.</t>
+  </si>
+  <si>
+    <t>Cela ne facilite pas le SEO du site quand on tape les mots clés relatifs au sujet.</t>
+  </si>
+  <si>
+    <t>Le site n'a pas de sitemaps</t>
+  </si>
+  <si>
+    <t>Générer un sitemap avec un outil, une fois que la structure et l'architeture du site est bonne.</t>
+  </si>
+  <si>
+    <t>Rajouter un titre de niveau 2 afin bien respecter la hiérarchie.</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578343-optimisez-le-contenu-de-vos-pages. Vu également avec l'utilisation de l'extension chrome headings map.</t>
+  </si>
+  <si>
+    <t>Le sitemaps indique aux moteurs de recherche toutes les pages du site qui doivent être indexées.</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5604431-installez-les-bons-outils</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578347-trouvez-vos-premiers-backlinks</t>
+  </si>
+  <si>
+    <t>Liens vers les réseaux sociaux inopérants.</t>
+  </si>
+  <si>
+    <t>Google prend de plus en plus en compte le contenu des réseaux sociaux, cette absence est donc préjudiciable à notre référencement.</t>
+  </si>
+  <si>
+    <t>S'assurer de créer notre page professionnelle sur les réseaux sociaux et renseigner les liens vers nos réseaux sociaux.</t>
+  </si>
+  <si>
+    <t>Leur absence ne favorise pas une compréhension globale de la page aux personnes qui  utilisent des TA.</t>
+  </si>
+  <si>
+    <t>Liste à puce non ordonnée présente dans différentes parties des pages web et notamment dans le footer.</t>
+  </si>
+  <si>
+    <t>Les données structurées ne sont pas traitées en tant que telle.</t>
+  </si>
+  <si>
+    <t>Les données structurées permettent à google d'afficher des résultats qui sortent de l'ordinaire. Leur absence ne donnera pas ce petit plus à notre site. L'avis qui est donné sur la page web pourrait être traitée en tant que donnée structurée.</t>
+  </si>
+  <si>
+    <t>Niveau de contraste insuffisant entre la couleur de fond du bouton et le texte du bouton, ainsi que tous les éléments de la page présentant ce niveau de contraste.</t>
+  </si>
+  <si>
+    <t>Rajouter un attribut title aux liens.</t>
+  </si>
+  <si>
+    <t>D'une façon générale, les liens n'ont pas d'intitulé (d'explication sur leur destination).</t>
+  </si>
+  <si>
+    <t>Les utilisateurs de technologie d'assistance n'auront pas assez d'information sur les liens. Ils devront cliquer dessus pour savoir où ces liens les emmenent.</t>
+  </si>
+  <si>
+    <t>2.4.4 Link purpose (in context) du guide WCAG et http://www.handi-pratique.com/accessibilite-liens-title et également https://www.handi-pratique.com/nouvelle-version-referentiel-accessiweb</t>
+  </si>
+  <si>
+    <t>Correctement nommer les class et les id utilisés, les simplifier et les rendre compréhensible, dans un but de maintenabilité du code.</t>
+  </si>
+  <si>
+    <t>Dans certaines div, les "class" sont trop longues.</t>
+  </si>
+  <si>
+    <t>Cela rajoute du contenu, donc augmente la taille du html, cela nuit à la maintenabilité du code et à sa qualité, donc a une influence sur le SEO.</t>
+  </si>
+  <si>
+    <t>Créer un menu qui découpe la page en différentes parties et créer les ancres correspondantes.</t>
+  </si>
+  <si>
+    <t>En aillant accès au menu de navigation on ne peut pas savoir ce qu'il y a sur la page. Cela ne facilite pas la navigation sur le site, l'exploration de la page d'accueil et des pages adjacentes.</t>
+  </si>
+  <si>
+    <t>1.3.1 WCAG Info and relationship du guide d'accessibilité</t>
+  </si>
+  <si>
+    <t>Le menu de navigation n'explicite pas ce qui se trouve sur la page web.</t>
+  </si>
+  <si>
+    <t>Vitesse de chargement</t>
+  </si>
+  <si>
+    <t>Taille</t>
+  </si>
+  <si>
+    <t>Acessibilité</t>
+  </si>
+  <si>
+    <t>Meta balise index, follow</t>
+  </si>
+  <si>
+    <t>meta async</t>
+  </si>
+  <si>
+    <t>Allegement images notamment en background</t>
+  </si>
+  <si>
+    <t>Minifier le site</t>
+  </si>
+  <si>
+    <t>Augmenter contraste de couleur là ou c'est nécessaire</t>
+  </si>
+  <si>
+    <t>Augmenter la taille du texte dans les paragraphes</t>
+  </si>
+  <si>
+    <t>Descriptions "alt" pour les images</t>
+  </si>
+  <si>
+    <t>Supprimer black-hat</t>
+  </si>
+  <si>
+    <t>Localisation du contenu</t>
+  </si>
+  <si>
+    <t>Pratique du black-hat contenu masqué contenant des mots-clés, écrits en blanc sur fond blanc et liens excessifs</t>
+  </si>
+  <si>
+    <t>Effacer ce contenu masqué et les liens excessifs notamment dans le footer</t>
+  </si>
+  <si>
+    <t>Niveau de titres à ordonner</t>
+  </si>
+  <si>
+    <t>Balise meta title et description non complétées</t>
+  </si>
+  <si>
+    <t>La balise meta description indique au moteur de recherche de quoi traite la page et est affichée dans les résultats de la requête. Elle est donc essentiel pour inciter les utilisateurs à visiter la page web. la balise meta title est l'une des balises les plus importante pour donner envie à un visiteur de vister la page web, elle fonctionne de concert avec la balise meta description.</t>
+  </si>
+  <si>
+    <t>Rédiger une description du contenu (dans la balise meta description) qu'un utilisateur peut trouver en allant sur notre site. Il est conseillé d'écrire un peu plus de 160 caractères. Rajouter titre dans balise meta en suivant les suivant les bonnes pratiques en terme de caractères (70 caracteres maximum). Essayer de placer le mot-clé en début de balise.</t>
+  </si>
+  <si>
+    <t>Suivre la documentation officielle google pour rajouter les données structurées selon la syntaxe et la norme précise qu'elle respecte.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -314,8 +583,50 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,20 +639,8 @@
         <bgColor rgb="FF7030A0"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -356,18 +655,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -378,15 +694,53 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -592,29 +946,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z1001"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Z986"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" customWidth="1"/>
-    <col min="2" max="2" width="30.36328125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="31.26953125" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41" customWidth="1"/>
     <col min="4" max="4" width="29.453125" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.26953125" customWidth="1"/>
+    <col min="6" max="6" width="33.1796875" style="3" customWidth="1"/>
     <col min="7" max="26" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -626,7 +981,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2"/>
@@ -651,1021 +1006,1198 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="21" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="12" customFormat="1" ht="62.4" hidden="1">
+      <c r="A3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="11">
+        <v>2</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="12" customFormat="1" ht="62.4" hidden="1">
+      <c r="A4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="11">
+        <v>2</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="12" customFormat="1" ht="109.2" hidden="1">
+      <c r="A5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="11">
+        <v>2</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="12" customFormat="1" ht="46.8" hidden="1">
+      <c r="A6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="11">
+        <v>2</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="12" customFormat="1" ht="153">
+      <c r="A7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="12" customFormat="1" ht="124.8" hidden="1">
+      <c r="A8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="11">
+        <v>2</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="12" customFormat="1" ht="78" hidden="1">
+      <c r="A9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="11">
+        <v>2</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="12" customFormat="1" ht="93.6">
+      <c r="A10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="11">
+        <v>3</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="12" customFormat="1" ht="93.6">
+      <c r="A11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="12" customFormat="1" ht="109.2">
+      <c r="A12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="11">
+        <v>2</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="12" customFormat="1" ht="109.2">
+      <c r="A13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="11">
+        <v>3</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" s="12" customFormat="1" ht="109.2" hidden="1">
+      <c r="A14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="11">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" s="12" customFormat="1" ht="78">
+      <c r="A15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="11">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="12" customFormat="1" ht="171.6">
+      <c r="A16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" s="11">
+        <v>1</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="12" customFormat="1" ht="109.2">
+      <c r="A17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="11">
+        <v>2</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="12" customFormat="1" ht="31.2" hidden="1">
+      <c r="A18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="11">
+        <v>1</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="12" customFormat="1" ht="78">
+      <c r="A19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="11">
+        <v>1</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="15" customFormat="1" ht="78">
+      <c r="A20" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="11">
+        <v>2</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="15" customFormat="1" ht="62.4">
+      <c r="A21" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="11">
+        <v>2</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="12" customFormat="1" ht="62.4" hidden="1">
+      <c r="A22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="11">
+        <v>1</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="12" customFormat="1" ht="62.4" hidden="1">
+      <c r="A23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="11">
+        <v>1</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="12" customFormat="1" ht="93.6">
+      <c r="A24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="11">
+        <v>1</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="12" customFormat="1" ht="62.4">
+      <c r="A25" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="11">
+        <v>2</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="12" customFormat="1" ht="62.4">
+      <c r="A26" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="11">
+        <v>2</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="12" customFormat="1" ht="78" hidden="1">
+      <c r="A27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="11">
+        <v>2</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="15" customFormat="1" ht="93.6" hidden="1">
+      <c r="A28" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="11">
+        <v>2</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="12" customFormat="1" ht="62.4">
+      <c r="A29" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="11">
+        <v>2</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="15" customFormat="1" ht="62.4" hidden="1">
+      <c r="A30" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="11">
+        <v>2</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="12" customFormat="1" ht="93.6">
+      <c r="A31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E31" s="11">
+        <v>1</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="12" customFormat="1" ht="46.8" hidden="1">
+      <c r="A32" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="11">
+        <v>2</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="12" customFormat="1" ht="109.2">
+      <c r="A33" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="11">
+        <v>2</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="12" customFormat="1" ht="62.4">
+      <c r="A34" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="11">
+        <v>2</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="12" customFormat="1" ht="78">
+      <c r="A35" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E35" s="11">
+        <v>3</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B40" s="5"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B41" s="5"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B42" s="5"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B43" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="C43" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B44" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="31.2">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:26" ht="62.4">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7">
+      <c r="C44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B45" s="5"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B46" s="5">
         <v>1</v>
       </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:26" ht="62.4">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7">
+      <c r="C46" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B47" s="5">
         <v>2</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="78">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="C47" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B48" s="5">
         <v>3</v>
       </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:26" ht="62.4">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:26" ht="62.4">
-      <c r="A8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:26" ht="31.2">
-      <c r="B9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:26" ht="46.8">
-      <c r="B10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:26" ht="62.4">
-      <c r="B11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:26" ht="62.4">
-      <c r="B12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.6">
-      <c r="B15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:26" ht="17.399999999999999" customHeight="1">
-      <c r="B16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" ht="31.2">
-      <c r="B17" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" ht="31.2">
-      <c r="B18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" ht="78">
-      <c r="B21" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" ht="31.2">
-      <c r="B23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" ht="93.6">
-      <c r="A24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" ht="46.8">
-      <c r="A25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" ht="62.4">
-      <c r="B26" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:6" ht="78">
-      <c r="A27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:6" ht="93.6">
-      <c r="A28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:6" ht="109.2">
-      <c r="B29" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="1:6" ht="31.2">
-      <c r="B31" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" ht="31.2">
-      <c r="B32" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="2:6" ht="31.2">
-      <c r="B34" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B35" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="2:6" ht="31.2">
-      <c r="B36" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="2:6" ht="46.8">
-      <c r="B37" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="2:6" ht="46.8">
-      <c r="B38" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="8"/>
-    </row>
-    <row r="40" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="8"/>
-    </row>
-    <row r="42" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="8"/>
-    </row>
-    <row r="43" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="8"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="5"/>
     </row>
     <row r="49" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="8"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="5"/>
     </row>
     <row r="50" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="8"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="5"/>
     </row>
     <row r="51" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="8"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="5"/>
     </row>
     <row r="52" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B52" s="7"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="8"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="5"/>
     </row>
     <row r="53" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B53" s="7"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="8"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="5"/>
     </row>
     <row r="54" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B54" s="7"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="8"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="5"/>
     </row>
     <row r="55" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B55" s="7"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="5"/>
     </row>
     <row r="56" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B56" s="7"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="5"/>
     </row>
     <row r="57" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B57" s="7"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="5"/>
     </row>
     <row r="58" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B58" s="7"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="5"/>
     </row>
     <row r="59" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B59" s="7"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="5"/>
     </row>
     <row r="60" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B60" s="7"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="5"/>
     </row>
     <row r="61" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B61" s="7"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="5"/>
     </row>
     <row r="62" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B62" s="7"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="5"/>
     </row>
     <row r="63" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B63" s="7"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="5"/>
     </row>
     <row r="64" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B64" s="7"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="5"/>
     </row>
     <row r="65" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B65" s="7"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="5"/>
     </row>
     <row r="66" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B66" s="7"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="5"/>
     </row>
     <row r="67" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B67" s="7"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="5"/>
     </row>
     <row r="68" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B68" s="7"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="5"/>
     </row>
     <row r="69" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B69" s="7"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="5"/>
     </row>
     <row r="70" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B70" s="7"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="5"/>
     </row>
     <row r="71" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B71" s="7"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="5"/>
     </row>
     <row r="72" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B72" s="7"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="5"/>
     </row>
     <row r="73" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B73" s="7"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="5"/>
     </row>
     <row r="74" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B74" s="7"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="5"/>
     </row>
     <row r="75" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B75" s="7"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="5"/>
     </row>
     <row r="76" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B76" s="7"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="5"/>
     </row>
     <row r="77" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B77" s="7"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="5"/>
     </row>
     <row r="78" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B78" s="7"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="5"/>
     </row>
     <row r="79" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B79" s="7"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="5"/>
     </row>
     <row r="80" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B80" s="7"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="5"/>
     </row>
     <row r="81" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B81" s="7"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="5"/>
     </row>
     <row r="82" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B82" s="7"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="5"/>
     </row>
     <row r="83" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B83" s="7"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="5"/>
     </row>
     <row r="84" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B84" s="7"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="5"/>
     </row>
     <row r="85" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B85" s="7"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="5"/>
     </row>
     <row r="86" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B86" s="7"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="5"/>
     </row>
     <row r="87" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B87" s="7"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="5"/>
     </row>
     <row r="88" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B88" s="7"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="5"/>
     </row>
     <row r="89" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B89" s="7"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="5"/>
     </row>
     <row r="90" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B90" s="7"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="5"/>
     </row>
     <row r="91" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B91" s="7"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="5"/>
     </row>
     <row r="92" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B92" s="7"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="5"/>
     </row>
     <row r="93" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B93" s="7"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="5"/>
     </row>
     <row r="94" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B94" s="7"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="5"/>
     </row>
     <row r="95" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B95" s="7"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="5"/>
     </row>
     <row r="96" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B96" s="7"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="5"/>
     </row>
     <row r="97" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B97" s="7"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="5"/>
     </row>
     <row r="98" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B98" s="7"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="5"/>
     </row>
     <row r="99" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B99" s="7"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="5"/>
     </row>
     <row r="100" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B100" s="7"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="5"/>
     </row>
     <row r="101" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B101" s="7"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="5"/>
     </row>
     <row r="102" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B102" s="7"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-    </row>
-    <row r="103" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B103" s="7"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-    </row>
-    <row r="104" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B104" s="7"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-    </row>
-    <row r="105" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B105" s="7"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-    </row>
-    <row r="106" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B106" s="7"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-    </row>
-    <row r="107" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B107" s="7"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-    </row>
-    <row r="108" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B108" s="7"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
-    </row>
-    <row r="109" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B109" s="7"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
-    </row>
-    <row r="110" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B110" s="7"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-    </row>
-    <row r="111" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B111" s="7"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-    </row>
-    <row r="112" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B112" s="7"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-    </row>
-    <row r="113" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B113" s="7"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-    </row>
-    <row r="114" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B114" s="7"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-    </row>
-    <row r="115" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B115" s="7"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
-    </row>
-    <row r="116" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B116" s="7"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
-    </row>
-    <row r="117" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B117" s="7"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8"/>
-    </row>
-    <row r="118" spans="2:6" ht="15.75" customHeight="1"/>
-    <row r="119" spans="2:6" ht="15.75" customHeight="1"/>
-    <row r="120" spans="2:6" ht="15.75" customHeight="1"/>
-    <row r="121" spans="2:6" ht="15.75" customHeight="1"/>
-    <row r="122" spans="2:6" ht="15.75" customHeight="1"/>
-    <row r="123" spans="2:6" ht="15.75" customHeight="1"/>
-    <row r="124" spans="2:6" ht="15.75" customHeight="1"/>
-    <row r="125" spans="2:6" ht="15.75" customHeight="1"/>
-    <row r="126" spans="2:6" ht="15.75" customHeight="1"/>
-    <row r="127" spans="2:6" ht="15.75" customHeight="1"/>
-    <row r="128" spans="2:6" ht="15.75" customHeight="1"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="5"/>
+    </row>
+    <row r="103" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="104" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="105" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="106" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="107" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="108" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="109" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="110" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="111" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="112" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
     <row r="129" ht="15.75" customHeight="1"/>
     <row r="130" ht="15.75" customHeight="1"/>
     <row r="131" ht="15.75" customHeight="1"/>
@@ -2524,23 +3056,150 @@
     <row r="984" ht="15.75" customHeight="1"/>
     <row r="985" ht="15.75" customHeight="1"/>
     <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
+  <autoFilter ref="A2:F35">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="SEO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A2:F47">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="6" customFormat="1" ht="46.8">
+      <c r="A2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="6" customFormat="1" ht="46.8">
+      <c r="A3" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="6" customFormat="1" ht="31.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="6" customFormat="1" ht="15.6">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" s="6" customFormat="1" ht="15.6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" s="6" customFormat="1" ht="15.6">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" s="6" customFormat="1" ht="15.6">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" s="6" customFormat="1" ht="15.6">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" s="6" customFormat="1" ht="15.6">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" s="6" customFormat="1" ht="15.6">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" s="6" customFormat="1" ht="15.6">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="624" windowWidth="22128" windowHeight="8436" tabRatio="500"/>
+    <workbookView xWindow="936" yWindow="624" windowWidth="18288" windowHeight="8436" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -626,7 +626,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -637,6 +637,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -678,7 +684,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -694,6 +700,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -950,13 +959,13 @@
   <dimension ref="A1:Z986"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" style="11" customWidth="1"/>
     <col min="2" max="2" width="33.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
     <col min="4" max="4" width="29.453125" customWidth="1"/>
@@ -966,7 +975,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -1006,7 +1015,7 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="21" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1023,663 +1032,663 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="12" customFormat="1" ht="62.4" hidden="1">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:26" s="13" customFormat="1" ht="62.4" hidden="1">
+      <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="12">
         <v>2</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="12" customFormat="1" ht="62.4" hidden="1">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:26" s="13" customFormat="1" ht="62.4" hidden="1">
+      <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="12">
         <v>2</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="12" customFormat="1" ht="109.2" hidden="1">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:26" s="13" customFormat="1" ht="109.2" hidden="1">
+      <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="12">
         <v>2</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="12" customFormat="1" ht="46.8" hidden="1">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:26" s="13" customFormat="1" ht="46.8">
+      <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="13" customFormat="1" ht="153">
+      <c r="A7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="13" customFormat="1" ht="124.8">
+      <c r="A8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="13" customFormat="1" ht="78" hidden="1">
+      <c r="A9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="12">
         <v>2</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" s="12" customFormat="1" ht="153">
-      <c r="A7" s="13" t="s">
+      <c r="F9" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="13" customFormat="1" ht="93.6" hidden="1">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="B10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="12">
+        <v>3</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="13" customFormat="1" ht="93.6">
+      <c r="A11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="12">
         <v>1</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" s="12" customFormat="1" ht="124.8" hidden="1">
-      <c r="A8" s="14" t="s">
+      <c r="F11" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="13" customFormat="1" ht="109.2" hidden="1">
+      <c r="A12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="13" customFormat="1" ht="109.2" hidden="1">
+      <c r="A13" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="12">
+        <v>3</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" s="13" customFormat="1" ht="109.2">
+      <c r="A14" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="B14" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" s="13" customFormat="1" ht="78">
+      <c r="A15" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="13" customFormat="1" ht="171.6">
+      <c r="A16" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="13" customFormat="1" ht="109.2" hidden="1">
+      <c r="A17" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="12">
         <v>2</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" s="12" customFormat="1" ht="78" hidden="1">
-      <c r="A9" s="14" t="s">
+      <c r="F17" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="13" customFormat="1" ht="31.2">
+      <c r="A18" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="B18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="13" customFormat="1" ht="78">
+      <c r="A19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="12">
+        <v>1</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="16" customFormat="1" ht="78" hidden="1">
+      <c r="A20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="12">
         <v>2</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" s="12" customFormat="1" ht="93.6">
-      <c r="A10" s="13" t="s">
+      <c r="F20" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="16" customFormat="1" ht="62.4" hidden="1">
+      <c r="A21" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="B21" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="12">
+        <v>2</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="13" customFormat="1" ht="62.4" hidden="1">
+      <c r="A22" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="12">
+        <v>2</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="13" customFormat="1" ht="62.4" hidden="1">
+      <c r="A23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="12">
+        <v>2</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="13" customFormat="1" ht="93.6">
+      <c r="A24" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="12">
+        <v>1</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="13" customFormat="1" ht="62.4" hidden="1">
+      <c r="A25" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="12">
+        <v>2</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="13" customFormat="1" ht="62.4" hidden="1">
+      <c r="A26" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="12">
+        <v>2</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="13" customFormat="1" ht="78" hidden="1">
+      <c r="A27" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="12">
+        <v>2</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="16" customFormat="1" ht="93.6" hidden="1">
+      <c r="A28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="12">
+        <v>2</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="13" customFormat="1" ht="62.4" hidden="1">
+      <c r="A29" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="12">
+        <v>2</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="16" customFormat="1" ht="62.4" hidden="1">
+      <c r="A30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="12">
+        <v>2</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="13" customFormat="1" ht="93.6">
+      <c r="A31" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E31" s="12">
+        <v>1</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="13" customFormat="1" ht="46.8" hidden="1">
+      <c r="A32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="12">
+        <v>2</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="13" customFormat="1" ht="109.2" hidden="1">
+      <c r="A33" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="12">
+        <v>2</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="13" customFormat="1" ht="62.4" hidden="1">
+      <c r="A34" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="12">
+        <v>2</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="13" customFormat="1" ht="78" hidden="1">
+      <c r="A35" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E35" s="12">
         <v>3</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" s="12" customFormat="1" ht="93.6">
-      <c r="A11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" s="12" customFormat="1" ht="109.2">
-      <c r="A12" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="11">
-        <v>2</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" s="12" customFormat="1" ht="109.2">
-      <c r="A13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" s="11">
-        <v>3</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" s="12" customFormat="1" ht="109.2" hidden="1">
-      <c r="A14" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="11">
-        <v>1</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" s="12" customFormat="1" ht="78">
-      <c r="A15" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="11">
-        <v>1</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" s="12" customFormat="1" ht="171.6">
-      <c r="A16" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="E16" s="11">
-        <v>1</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="12" customFormat="1" ht="109.2">
-      <c r="A17" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="11">
-        <v>2</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="12" customFormat="1" ht="31.2" hidden="1">
-      <c r="A18" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="11">
-        <v>1</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="12" customFormat="1" ht="78">
-      <c r="A19" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="11">
-        <v>1</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="15" customFormat="1" ht="78">
-      <c r="A20" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" s="11">
-        <v>2</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="15" customFormat="1" ht="62.4">
-      <c r="A21" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="11">
-        <v>2</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="12" customFormat="1" ht="62.4" hidden="1">
-      <c r="A22" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="E22" s="11">
-        <v>1</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="12" customFormat="1" ht="62.4" hidden="1">
-      <c r="A23" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="11">
-        <v>1</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="12" customFormat="1" ht="93.6">
-      <c r="A24" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E24" s="11">
-        <v>1</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="12" customFormat="1" ht="62.4">
-      <c r="A25" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" s="11">
-        <v>2</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="12" customFormat="1" ht="62.4">
-      <c r="A26" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E26" s="11">
-        <v>2</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="12" customFormat="1" ht="78" hidden="1">
-      <c r="A27" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="11">
-        <v>2</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="15" customFormat="1" ht="93.6" hidden="1">
-      <c r="A28" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E28" s="11">
-        <v>2</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="12" customFormat="1" ht="62.4">
-      <c r="A29" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E29" s="11">
-        <v>2</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="15" customFormat="1" ht="62.4" hidden="1">
-      <c r="A30" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="11">
-        <v>2</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="12" customFormat="1" ht="93.6">
-      <c r="A31" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E31" s="11">
-        <v>1</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="12" customFormat="1" ht="46.8" hidden="1">
-      <c r="A32" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="11">
-        <v>2</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="12" customFormat="1" ht="109.2">
-      <c r="A33" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="11">
-        <v>2</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="12" customFormat="1" ht="62.4">
-      <c r="A34" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E34" s="11">
-        <v>2</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="12" customFormat="1" ht="78">
-      <c r="A35" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E35" s="11">
-        <v>3</v>
-      </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="12" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1733,7 +1742,7 @@
       <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -1744,7 +1753,7 @@
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -3058,9 +3067,9 @@
     <row r="986" ht="15.75" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A2:F35">
-    <filterColumn colId="0">
+    <filterColumn colId="4">
       <filters>
-        <filter val="SEO"/>
+        <filter val="1"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3093,16 +3102,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -626,7 +626,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -642,6 +642,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,7 +690,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -722,6 +728,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -730,18 +758,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -959,8 +975,8 @@
   <dimension ref="A1:Z986"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1"/>
@@ -1048,7 +1064,7 @@
       <c r="E3" s="12">
         <v>2</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="25" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1068,7 +1084,7 @@
       <c r="E4" s="12">
         <v>2</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="25" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1092,40 +1108,40 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="13" customFormat="1" ht="46.8">
+    <row r="6" spans="1:26" s="17" customFormat="1" ht="46.8">
       <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="16">
         <v>1</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="13" customFormat="1" ht="153">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:26" s="17" customFormat="1" ht="153">
+      <c r="A7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="16">
         <v>1</v>
       </c>
       <c r="F7" s="19" t="s">
@@ -1133,7 +1149,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" s="13" customFormat="1" ht="124.8">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -1153,7 +1169,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" s="13" customFormat="1" ht="78" hidden="1">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -1192,23 +1208,23 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="13" customFormat="1" ht="93.6">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:26" s="17" customFormat="1" ht="93.6">
+      <c r="A11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="16">
         <v>1</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="16" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1253,7 +1269,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" s="13" customFormat="1" ht="109.2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -1272,43 +1288,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="13" customFormat="1" ht="78">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:26" s="17" customFormat="1" ht="78">
+      <c r="A15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="16">
         <v>1</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="13" customFormat="1" ht="171.6">
-      <c r="A16" s="14" t="s">
+    <row r="16" spans="1:26" s="17" customFormat="1" ht="171.6">
+      <c r="A16" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="16">
         <v>1</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="16" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1332,48 +1348,48 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="13" customFormat="1" ht="31.2">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:6" s="17" customFormat="1" ht="31.2">
+      <c r="A18" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="16">
         <v>1</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="13" customFormat="1" ht="78">
-      <c r="A19" s="14" t="s">
+    <row r="19" spans="1:6" s="17" customFormat="1" ht="78">
+      <c r="A19" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="16">
         <v>1</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="16" customFormat="1" ht="78" hidden="1">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:6" s="24" customFormat="1" ht="78" hidden="1">
+      <c r="A20" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -1388,12 +1404,12 @@
       <c r="E20" s="12">
         <v>2</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="16" customFormat="1" ht="62.4" hidden="1">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:6" s="24" customFormat="1" ht="62.4" hidden="1">
+      <c r="A21" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -1452,28 +1468,28 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="13" customFormat="1" ht="93.6">
-      <c r="A24" s="14" t="s">
+    <row r="24" spans="1:6" s="17" customFormat="1" ht="93.6">
+      <c r="A24" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="16">
         <v>1</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="16" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="13" customFormat="1" ht="62.4" hidden="1">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -1493,7 +1509,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="13" customFormat="1" ht="62.4" hidden="1">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -1532,8 +1548,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="16" customFormat="1" ht="93.6" hidden="1">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:6" s="24" customFormat="1" ht="93.6" hidden="1">
+      <c r="A28" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="12" t="s">
@@ -1553,7 +1569,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="13" customFormat="1" ht="62.4" hidden="1">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="12" t="s">
@@ -1572,8 +1588,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="16" customFormat="1" ht="62.4" hidden="1">
-      <c r="A30" s="15" t="s">
+    <row r="30" spans="1:6" s="24" customFormat="1" ht="62.4" hidden="1">
+      <c r="A30" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -1592,28 +1608,28 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="13" customFormat="1" ht="93.6">
-      <c r="A31" s="14" t="s">
+    <row r="31" spans="1:6" s="17" customFormat="1" ht="93.6">
+      <c r="A31" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="16">
         <v>1</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="13" customFormat="1" ht="46.8" hidden="1">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="12" t="s">
@@ -1633,7 +1649,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" s="13" customFormat="1" ht="109.2" hidden="1">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B33" s="12" t="s">
@@ -1653,7 +1669,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" s="13" customFormat="1" ht="62.4" hidden="1">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B34" s="12" t="s">
@@ -1673,7 +1689,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" s="13" customFormat="1" ht="78" hidden="1">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B35" s="12" t="s">
@@ -3102,16 +3118,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="27" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -975,8 +975,8 @@
   <dimension ref="A1:Z986"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1"/>
@@ -1148,23 +1148,23 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="13" customFormat="1" ht="124.8">
-      <c r="A8" s="23" t="s">
+    <row r="8" spans="1:26" s="17" customFormat="1" ht="124.8">
+      <c r="A8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="16">
         <v>1</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="16" t="s">
         <v>49</v>
       </c>
     </row>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -11,14 +11,14 @@
     <sheet name="ELEMENTS RETENUS CRITERES" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$2:$F$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$F$37</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="139">
   <si>
     <t>Catégorie</t>
   </si>
@@ -38,43 +38,16 @@
     <t>Référence</t>
   </si>
   <si>
-    <t>(SEO ou accessiblité ?)</t>
-  </si>
-  <si>
     <t>SEO</t>
   </si>
   <si>
     <t>Access</t>
   </si>
   <si>
-    <t>quel est le problème ?</t>
-  </si>
-  <si>
-    <t>En quoi c'est un pb ?</t>
-  </si>
-  <si>
-    <t>Comment résoudre le pb ?</t>
-  </si>
-  <si>
-    <t>source d'information</t>
-  </si>
-  <si>
     <t>Pas de définition de la langue</t>
   </si>
   <si>
     <t>Présence de balise meta keywords</t>
-  </si>
-  <si>
-    <t>temps téléchargement P1</t>
-  </si>
-  <si>
-    <t>Temps telechargement P2</t>
-  </si>
-  <si>
-    <t>142 ms</t>
-  </si>
-  <si>
-    <t>424 ms</t>
   </si>
   <si>
     <t>Mise en œuvre importante</t>
@@ -484,51 +457,12 @@
     <t>Le menu de navigation n'explicite pas ce qui se trouve sur la page web.</t>
   </si>
   <si>
-    <t>Vitesse de chargement</t>
-  </si>
-  <si>
-    <t>Taille</t>
-  </si>
-  <si>
-    <t>Acessibilité</t>
-  </si>
-  <si>
-    <t>Meta balise index, follow</t>
-  </si>
-  <si>
-    <t>meta async</t>
-  </si>
-  <si>
-    <t>Allegement images notamment en background</t>
-  </si>
-  <si>
-    <t>Minifier le site</t>
-  </si>
-  <si>
-    <t>Augmenter contraste de couleur là ou c'est nécessaire</t>
-  </si>
-  <si>
-    <t>Augmenter la taille du texte dans les paragraphes</t>
-  </si>
-  <si>
-    <t>Descriptions "alt" pour les images</t>
-  </si>
-  <si>
-    <t>Supprimer black-hat</t>
-  </si>
-  <si>
-    <t>Localisation du contenu</t>
-  </si>
-  <si>
     <t>Pratique du black-hat contenu masqué contenant des mots-clés, écrits en blanc sur fond blanc et liens excessifs</t>
   </si>
   <si>
     <t>Effacer ce contenu masqué et les liens excessifs notamment dans le footer</t>
   </si>
   <si>
-    <t>Niveau de titres à ordonner</t>
-  </si>
-  <si>
     <t>Balise meta title et description non complétées</t>
   </si>
   <si>
@@ -539,13 +473,16 @@
   </si>
   <si>
     <t>Suivre la documentation officielle google pour rajouter les données structurées selon la syntaxe et la norme précise qu'elle respecte.</t>
+  </si>
+  <si>
+    <t>*Ce sont les éléments retenus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -562,11 +499,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -626,7 +558,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -639,20 +571,8 @@
         <bgColor rgb="FF7030A0"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -682,87 +602,211 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -971,1232 +1015,1199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:Z986"/>
+  <dimension ref="A1:Z984"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="33.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.08984375" style="2" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
-    <col min="4" max="4" width="29.453125" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.1796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="37.36328125" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" customWidth="1"/>
+    <col min="6" max="6" width="47.08984375" style="2" customWidth="1"/>
     <col min="7" max="26" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:26" ht="38.4" customHeight="1">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" ht="21" customHeight="1">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" s="8" customFormat="1" ht="46.8">
       <c r="A2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="8" customFormat="1" ht="46.8">
+      <c r="A3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="8" customFormat="1" ht="78">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="8" customFormat="1" ht="62.4">
+      <c r="A5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="8" customFormat="1" ht="106.8">
+      <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" s="13" customFormat="1" ht="62.4" hidden="1">
-      <c r="A3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="B6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="8" customFormat="1" ht="109.2">
+      <c r="A7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="8" customFormat="1" ht="78">
+      <c r="A8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="12">
+      <c r="C8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="7">
         <v>2</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" s="13" customFormat="1" ht="62.4" hidden="1">
-      <c r="A4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="F8" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="8" customFormat="1" ht="78">
+      <c r="A9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="7">
+        <v>3</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="8" customFormat="1" ht="93.6">
+      <c r="A10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="8" customFormat="1" ht="93.6">
+      <c r="A11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="7">
         <v>2</v>
       </c>
-      <c r="F4" s="25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" s="13" customFormat="1" ht="109.2" hidden="1">
-      <c r="A5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="F11" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="8" customFormat="1" ht="78">
+      <c r="A12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="7">
+        <v>3</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="8" customFormat="1" ht="78">
+      <c r="A13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="7">
         <v>2</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" s="17" customFormat="1" ht="46.8">
-      <c r="A6" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="16">
-        <v>1</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" s="17" customFormat="1" ht="153">
-      <c r="A7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="16">
-        <v>1</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" s="17" customFormat="1" ht="124.8">
-      <c r="A8" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="16">
-        <v>1</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" s="13" customFormat="1" ht="78" hidden="1">
-      <c r="A9" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="12">
-        <v>2</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" s="13" customFormat="1" ht="93.6" hidden="1">
-      <c r="A10" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="12">
-        <v>3</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" s="17" customFormat="1" ht="93.6">
-      <c r="A11" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="16" t="s">
+      <c r="F13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="16">
-        <v>1</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" s="13" customFormat="1" ht="109.2" hidden="1">
-      <c r="A12" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="12" t="s">
+    </row>
+    <row r="14" spans="1:26" s="8" customFormat="1" ht="78">
+      <c r="A14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="12">
-        <v>2</v>
-      </c>
-      <c r="F12" s="12" t="s">
+      <c r="D14" s="7" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" s="13" customFormat="1" ht="109.2" hidden="1">
-      <c r="A13" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" s="12">
-        <v>3</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" s="13" customFormat="1" ht="109.2">
-      <c r="A14" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="E14" s="7">
         <v>1</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" s="8" customFormat="1" ht="124.8">
+      <c r="A15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="8" customFormat="1" ht="78">
+      <c r="A16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="8" customFormat="1" ht="31.2">
+      <c r="A17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="8" customFormat="1" ht="78">
+      <c r="A18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="11" customFormat="1" ht="62.4">
+      <c r="A19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="7">
+        <v>2</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="11" customFormat="1" ht="46.8">
+      <c r="A20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="7">
+        <v>2</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="17" customFormat="1" ht="78">
-      <c r="A15" s="15" t="s">
+    <row r="21" spans="1:6" s="8" customFormat="1" ht="62.4">
+      <c r="A21" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="8" customFormat="1" ht="62.4">
+      <c r="A22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="7">
+        <v>2</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="8" customFormat="1" ht="78">
+      <c r="A23" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="8" customFormat="1" ht="46.8">
+      <c r="A24" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="7">
+        <v>2</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="8" customFormat="1" ht="62.4">
+      <c r="A25" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="7">
+        <v>2</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="8" customFormat="1" ht="62.4">
+      <c r="A26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="7">
+        <v>2</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="11" customFormat="1" ht="62.4">
+      <c r="A27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="7">
+        <v>2</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="8" customFormat="1" ht="46.8">
+      <c r="A28" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="7">
+        <v>2</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="11" customFormat="1" ht="62.4">
+      <c r="A29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="7">
+        <v>2</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="8" customFormat="1" ht="109.2">
+      <c r="A30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="8" customFormat="1" ht="46.8">
+      <c r="A31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="7">
+        <v>2</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="16">
+    </row>
+    <row r="32" spans="1:6" s="8" customFormat="1" ht="78">
+      <c r="A32" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="7">
+        <v>2</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="8" customFormat="1" ht="46.8">
+      <c r="A33" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="7">
+        <v>2</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="8" customFormat="1" ht="78.599999999999994" thickBot="1">
+      <c r="A34" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="7">
+        <v>3</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A35" s="23">
         <v>1</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" s="17" customFormat="1" ht="171.6">
-      <c r="A16" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="E16" s="16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="13" customFormat="1" ht="109.2" hidden="1">
-      <c r="A17" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="12">
+      <c r="B35" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A36" s="26">
         <v>2</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="17" customFormat="1" ht="31.2">
-      <c r="A18" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="16">
-        <v>1</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="17" customFormat="1" ht="78">
-      <c r="A19" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="16">
-        <v>1</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="24" customFormat="1" ht="78" hidden="1">
-      <c r="A20" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" s="12">
-        <v>2</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="24" customFormat="1" ht="62.4" hidden="1">
-      <c r="A21" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="12">
-        <v>2</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="13" customFormat="1" ht="62.4" hidden="1">
-      <c r="A22" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E22" s="12">
-        <v>2</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="13" customFormat="1" ht="62.4" hidden="1">
-      <c r="A23" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="12">
-        <v>2</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="17" customFormat="1" ht="93.6">
-      <c r="A24" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="E24" s="16">
-        <v>1</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="13" customFormat="1" ht="62.4" hidden="1">
-      <c r="A25" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" s="12">
-        <v>2</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="13" customFormat="1" ht="62.4" hidden="1">
-      <c r="A26" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="E26" s="12">
-        <v>2</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="13" customFormat="1" ht="78" hidden="1">
-      <c r="A27" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="12">
-        <v>2</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="24" customFormat="1" ht="93.6" hidden="1">
-      <c r="A28" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E28" s="12">
-        <v>2</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="13" customFormat="1" ht="62.4" hidden="1">
-      <c r="A29" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="E29" s="12">
-        <v>2</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="24" customFormat="1" ht="62.4" hidden="1">
-      <c r="A30" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="12">
-        <v>2</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="17" customFormat="1" ht="93.6">
-      <c r="A31" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="E31" s="16">
-        <v>1</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="13" customFormat="1" ht="46.8" hidden="1">
-      <c r="A32" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="12">
-        <v>2</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="13" customFormat="1" ht="109.2" hidden="1">
-      <c r="A33" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="12">
-        <v>2</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="13" customFormat="1" ht="62.4" hidden="1">
-      <c r="A34" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E34" s="12">
-        <v>2</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="13" customFormat="1" ht="78" hidden="1">
-      <c r="A35" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="E35" s="12">
+      <c r="B36" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="27"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A37" s="28">
         <v>3</v>
       </c>
-      <c r="F35" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
+      <c r="B37" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="30"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B40" s="5"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="5"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1">
       <c r="B41" s="5"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="5"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1">
       <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="5"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B43" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="5"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B44" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="5"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B45" s="5"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="5"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B46" s="5">
-        <v>1</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="5"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B47" s="5">
-        <v>2</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="5"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B48" s="5">
-        <v>3</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="5"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="3"/>
     </row>
     <row r="49" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B49" s="5"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="5"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="3"/>
     </row>
     <row r="50" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B50" s="5"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="5"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="3"/>
     </row>
     <row r="51" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B51" s="5"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="5"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="3"/>
     </row>
     <row r="52" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B52" s="5"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="5"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="3"/>
     </row>
     <row r="53" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B53" s="5"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="5"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="3"/>
     </row>
     <row r="54" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B54" s="5"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="5"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="3"/>
     </row>
     <row r="55" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B55" s="5"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="5"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="3"/>
     </row>
     <row r="56" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B56" s="5"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="5"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="3"/>
     </row>
     <row r="57" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B57" s="5"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="5"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="3"/>
     </row>
     <row r="58" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B58" s="5"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="5"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="3"/>
     </row>
     <row r="59" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B59" s="5"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="5"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="3"/>
     </row>
     <row r="60" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B60" s="5"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="5"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="3"/>
     </row>
     <row r="61" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B61" s="5"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="5"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="3"/>
     </row>
     <row r="62" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B62" s="5"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="5"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="3"/>
     </row>
     <row r="63" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B63" s="5"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="5"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="3"/>
     </row>
     <row r="64" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B64" s="5"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="5"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="3"/>
     </row>
     <row r="65" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B65" s="5"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="5"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="3"/>
     </row>
     <row r="66" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B66" s="5"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="5"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="3"/>
     </row>
     <row r="67" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B67" s="5"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="5"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="3"/>
     </row>
     <row r="68" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B68" s="5"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="5"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="3"/>
     </row>
     <row r="69" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B69" s="5"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="5"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="3"/>
     </row>
     <row r="70" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B70" s="5"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="5"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="3"/>
     </row>
     <row r="71" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B71" s="5"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="5"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="3"/>
     </row>
     <row r="72" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B72" s="5"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="5"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="3"/>
     </row>
     <row r="73" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B73" s="5"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="5"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="3"/>
     </row>
     <row r="74" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B74" s="5"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="5"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="3"/>
     </row>
     <row r="75" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B75" s="5"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="5"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="3"/>
     </row>
     <row r="76" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B76" s="5"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="5"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="3"/>
     </row>
     <row r="77" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B77" s="5"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="5"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="3"/>
     </row>
     <row r="78" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B78" s="5"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="5"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="3"/>
     </row>
     <row r="79" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B79" s="5"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="5"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="3"/>
     </row>
     <row r="80" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B80" s="5"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="5"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="3"/>
     </row>
     <row r="81" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B81" s="5"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="5"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="3"/>
     </row>
     <row r="82" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B82" s="5"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="5"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="3"/>
     </row>
     <row r="83" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B83" s="5"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="5"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="3"/>
     </row>
     <row r="84" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B84" s="5"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="5"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="3"/>
     </row>
     <row r="85" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B85" s="5"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="5"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="3"/>
     </row>
     <row r="86" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B86" s="5"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="5"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="3"/>
     </row>
     <row r="87" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B87" s="5"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="5"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="3"/>
     </row>
     <row r="88" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B88" s="5"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="5"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="3"/>
     </row>
     <row r="89" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B89" s="5"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="5"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="3"/>
     </row>
     <row r="90" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B90" s="5"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="5"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="3"/>
     </row>
     <row r="91" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B91" s="5"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="5"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="3"/>
     </row>
     <row r="92" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B92" s="5"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="5"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="3"/>
     </row>
     <row r="93" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B93" s="5"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="5"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="3"/>
     </row>
     <row r="94" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B94" s="5"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="5"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="3"/>
     </row>
     <row r="95" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B95" s="5"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="5"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="3"/>
     </row>
     <row r="96" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B96" s="5"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="5"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="3"/>
     </row>
     <row r="97" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B97" s="5"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="5"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="3"/>
     </row>
     <row r="98" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B98" s="5"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="5"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="3"/>
     </row>
     <row r="99" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B99" s="5"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="5"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="3"/>
     </row>
     <row r="100" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B100" s="5"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="5"/>
-    </row>
-    <row r="101" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B101" s="5"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="5"/>
-    </row>
-    <row r="102" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B102" s="5"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="5"/>
-    </row>
+      <c r="B100" s="3"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="102" spans="2:6" ht="15.75" customHeight="1"/>
     <row r="103" spans="2:6" ht="15.75" customHeight="1"/>
     <row r="104" spans="2:6" ht="15.75" customHeight="1"/>
     <row r="105" spans="2:6" ht="15.75" customHeight="1"/>
@@ -3079,34 +3090,25 @@
     <row r="982" ht="15.75" customHeight="1"/>
     <row r="983" ht="15.75" customHeight="1"/>
     <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A2:F35">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <sortState ref="A2:F47">
     <sortCondition ref="A2"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
-    <hyperlink ref="F4" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="53" orientation="landscape" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3117,111 +3119,59 @@
     <col min="4" max="4" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" ht="46.8">
-      <c r="A2" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" ht="46.8">
-      <c r="A3" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" ht="31.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" ht="15.6">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" ht="15.6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" ht="15.6">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" s="6" customFormat="1" ht="15.6">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" s="6" customFormat="1" ht="15.6">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" s="6" customFormat="1" ht="15.6">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" s="6" customFormat="1" ht="15.6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" s="6" customFormat="1" ht="15.6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="15.6">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="15.6">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="15.6">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="15.6">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="15.6">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="15.6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="15.6">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="15.6">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
